--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{668ED7C2-891C-40B2-8BB0-237A39219718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD5E58D-5BB5-4B2A-AE14-1B54A4EAD027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{C2DF8675-165C-4C06-BC14-BA8BD96E03A3}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{226BD7A8-DED4-437A-A700-FE1FD61DB279}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16966A4-3D05-4693-A971-AFD4BF667EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC339B71-781E-4FF3-86C2-9A30FA9DB629}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD5E58D-5BB5-4B2A-AE14-1B54A4EAD027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4403CFA5-DA2C-4D1D-8F16-D41DF181BDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{226BD7A8-DED4-437A-A700-FE1FD61DB279}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{21DC89FB-8D54-4522-B159-D2C79427F6B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>9774040151R</t>
+  </si>
+  <si>
+    <t>Spacer Material: Steel Mounting: SMT Series: WA-SMSI Thread D: M2.5</t>
+  </si>
+  <si>
+    <t>MP?</t>
   </si>
   <si>
     <t>53261-0271</t>
@@ -513,8 +522,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC339B71-781E-4FF3-86C2-9A30FA9DB629}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4D761E-D13F-43C6-AB24-89B3CA6A4D5F}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +628,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -630,7 +639,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -639,13 +648,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,16 +662,20 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1">
-        <v>56</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -675,7 +688,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -691,10 +704,26 @@
         <v>33</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4403CFA5-DA2C-4D1D-8F16-D41DF181BDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4763A69-E83C-40BA-85AD-7EE400ABB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{21DC89FB-8D54-4522-B159-D2C79427F6B8}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{5EC6298E-2A99-45A7-B03C-2931DB6D8EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>9774040151R</t>
-  </si>
-  <si>
-    <t>Spacer Material: Steel Mounting: SMT Series: WA-SMSI Thread D: M2.5</t>
-  </si>
-  <si>
-    <t>MP?</t>
   </si>
   <si>
     <t>53261-0271</t>
@@ -522,8 +513,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4D761E-D13F-43C6-AB24-89B3CA6A4D5F}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBCC2BA-199A-4268-99A5-31ED6820F457}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -639,7 +630,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -648,13 +639,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,20 +653,16 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -688,7 +675,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -704,26 +691,10 @@
         <v>33</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4763A69-E83C-40BA-85AD-7EE400ABB9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DAA8E7-BA53-47BB-A068-6D6718CEC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{5EC6298E-2A99-45A7-B03C-2931DB6D8EA1}"/>
+    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{5FB075B7-97B9-4FD6-A07C-AC6EA12F9538}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBCC2BA-199A-4268-99A5-31ED6820F457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEB75BD-22C9-441D-84F2-EE73334987CA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DAA8E7-BA53-47BB-A068-6D6718CEC477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D33584-D594-418A-92AC-59B93A614FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2205" windowWidth="28800" windowHeight="15435" xr2:uid="{5FB075B7-97B9-4FD6-A07C-AC6EA12F9538}"/>
+    <workbookView xWindow="2025" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{2F3FBF12-13B0-4372-A05D-88E29896650E}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEB75BD-22C9-441D-84F2-EE73334987CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F32B4F6-E039-444A-B6D6-C45F9685E951}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D33584-D594-418A-92AC-59B93A614FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104D6A09-8AD0-4D0A-BFF1-A1E62FE38359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{2F3FBF12-13B0-4372-A05D-88E29896650E}"/>
+    <workbookView xWindow="2025" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{16A224E9-03EF-4433-B84B-27847F08D38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F32B4F6-E039-444A-B6D6-C45F9685E951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD68008-7F82-4B70-A984-DB5C1D6C50D9}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104D6A09-8AD0-4D0A-BFF1-A1E62FE38359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D04A92B-31D5-4B65-9256-7331BDF783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3660" windowWidth="28800" windowHeight="15435" xr2:uid="{16A224E9-03EF-4433-B84B-27847F08D38F}"/>
+    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{83026941-0C40-4609-B27D-22785BC373C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD68008-7F82-4B70-A984-DB5C1D6C50D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26991CF9-00AD-41F9-902D-9A6EAA51D88E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
+++ b/Hardware/Project Outputs for Heliotrope_Mini/BOM/Bill of Materials-Heliotrope_Mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\Heliotrope_Mini\Project Outputs for Heliotrope_Mini\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D04A92B-31D5-4B65-9256-7331BDF783ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD22A125-1143-4643-A8CB-57DABC8E7BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="4470" windowWidth="18720" windowHeight="15435" xr2:uid="{83026941-0C40-4609-B27D-22785BC373C6}"/>
+    <workbookView xWindow="13500" yWindow="3495" windowWidth="18720" windowHeight="15435" xr2:uid="{69E9AD88-6833-464E-ABD7-03503AC323DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Heliotrope_Mi" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26991CF9-00AD-41F9-902D-9A6EAA51D88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E69EB7-3054-494C-9B3A-0E69E6F24E57}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
